--- a/db/Requisito_horario.xlsx
+++ b/db/Requisito_horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PosGrado\Proyecto Titulacion\Timetabling\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71275CDC-3AF3-4B6A-AE84-A298844B21FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764023F2-BF3A-403B-B240-860C2785CBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9645E043-A915-45BA-A74B-6A06D7338E21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="135">
   <si>
     <t>requisito_id</t>
   </si>
@@ -49,6 +49,396 @@
   </si>
   <si>
     <t>duracion_sesion_horas</t>
+  </si>
+  <si>
+    <t>CI-IC-001</t>
+  </si>
+  <si>
+    <t>TC-IC-001</t>
+  </si>
+  <si>
+    <t>CA-IC-001</t>
+  </si>
+  <si>
+    <t>RT-IC-001</t>
+  </si>
+  <si>
+    <t>AM-IC-001</t>
+  </si>
+  <si>
+    <t>RT-IC-002</t>
+  </si>
+  <si>
+    <t>TC-IC-002</t>
+  </si>
+  <si>
+    <t>CA-IC-002</t>
+  </si>
+  <si>
+    <t>AM-IC-002</t>
+  </si>
+  <si>
+    <t>CI-IC-002</t>
+  </si>
+  <si>
+    <t>RT-IC-003</t>
+  </si>
+  <si>
+    <t>TC-IC-003</t>
+  </si>
+  <si>
+    <t>DI-IC-001</t>
+  </si>
+  <si>
+    <t>AM-IC-003</t>
+  </si>
+  <si>
+    <t>CI-IC-003</t>
+  </si>
+  <si>
+    <t>FD-IC-001</t>
+  </si>
+  <si>
+    <t>SR-INC-001</t>
+  </si>
+  <si>
+    <t>LEM-INC-001</t>
+  </si>
+  <si>
+    <t>FD-INC-001</t>
+  </si>
+  <si>
+    <t>TC-INC-001</t>
+  </si>
+  <si>
+    <t>AM-INC-001</t>
+  </si>
+  <si>
+    <t>DI-INC-001</t>
+  </si>
+  <si>
+    <t>PC-INC-001</t>
+  </si>
+  <si>
+    <t>INI-INC-001</t>
+  </si>
+  <si>
+    <t>SR-INC-002</t>
+  </si>
+  <si>
+    <t>LEM-INC-002</t>
+  </si>
+  <si>
+    <t>FD-INC-002</t>
+  </si>
+  <si>
+    <t>TC-INC-002</t>
+  </si>
+  <si>
+    <t>AM-INC-002</t>
+  </si>
+  <si>
+    <t>DI-INC-002</t>
+  </si>
+  <si>
+    <t>PC-INC-002</t>
+  </si>
+  <si>
+    <t>SR-INC-003</t>
+  </si>
+  <si>
+    <t>TM-INC-003</t>
+  </si>
+  <si>
+    <t>FD-INC-003</t>
+  </si>
+  <si>
+    <t>TC-INC-003</t>
+  </si>
+  <si>
+    <t>AMC-INC-003</t>
+  </si>
+  <si>
+    <t>DI-INC-003</t>
+  </si>
+  <si>
+    <t>PC-INC-003</t>
+  </si>
+  <si>
+    <t>IO-INC-003</t>
+  </si>
+  <si>
+    <t>SR-BC-001</t>
+  </si>
+  <si>
+    <t>TM-BC-001</t>
+  </si>
+  <si>
+    <t>DM-BC-001</t>
+  </si>
+  <si>
+    <t>AM-BC-001</t>
+  </si>
+  <si>
+    <t>CN-BC-001</t>
+  </si>
+  <si>
+    <t>PO-BC-001</t>
+  </si>
+  <si>
+    <t>OF-BC-001</t>
+  </si>
+  <si>
+    <t>SR-BC-002</t>
+  </si>
+  <si>
+    <t>TM-BC-002</t>
+  </si>
+  <si>
+    <t>DM-BC-002</t>
+  </si>
+  <si>
+    <t>AM-BC-002</t>
+  </si>
+  <si>
+    <t>CN-BC-002</t>
+  </si>
+  <si>
+    <t>PO-BC-002</t>
+  </si>
+  <si>
+    <t>OF-BC-002</t>
+  </si>
+  <si>
+    <t>SR-BC-003</t>
+  </si>
+  <si>
+    <t>TM-BC-003</t>
+  </si>
+  <si>
+    <t>DM-BC-003</t>
+  </si>
+  <si>
+    <t>ITV-BC-001</t>
+  </si>
+  <si>
+    <t>CN-BC-003</t>
+  </si>
+  <si>
+    <t>PO-BC-003</t>
+  </si>
+  <si>
+    <t>OF-BC-003</t>
+  </si>
+  <si>
+    <t>SR-ITC-001</t>
+  </si>
+  <si>
+    <t>TM-ITC-001</t>
+  </si>
+  <si>
+    <t>DIM-ITC-001</t>
+  </si>
+  <si>
+    <t>AMT-ITC-001</t>
+  </si>
+  <si>
+    <t>FD-ITC-001</t>
+  </si>
+  <si>
+    <t>TC-ITC-001</t>
+  </si>
+  <si>
+    <t>PC-ITC-001</t>
+  </si>
+  <si>
+    <t>IO-ITC-001</t>
+  </si>
+  <si>
+    <t>INI-ITC-001</t>
+  </si>
+  <si>
+    <t>SR-ITC-002</t>
+  </si>
+  <si>
+    <t>TM-ITC-002</t>
+  </si>
+  <si>
+    <t>DM-ITC-002</t>
+  </si>
+  <si>
+    <t>FD-ITC-002</t>
+  </si>
+  <si>
+    <t>TC-ITC-002</t>
+  </si>
+  <si>
+    <t>CJ-ITC-001</t>
+  </si>
+  <si>
+    <t>PO-ITC-001</t>
+  </si>
+  <si>
+    <t>OF-ITC-001</t>
+  </si>
+  <si>
+    <t>SR-ITC-003</t>
+  </si>
+  <si>
+    <t>TM-ITC-003</t>
+  </si>
+  <si>
+    <t>DM-ITC-003</t>
+  </si>
+  <si>
+    <t>FD-ITC-003</t>
+  </si>
+  <si>
+    <t>TC-ITC-003</t>
+  </si>
+  <si>
+    <t>CJ-ITC-002</t>
+  </si>
+  <si>
+    <t>PO-ITC-002</t>
+  </si>
+  <si>
+    <t>OF-ITC-002</t>
+  </si>
+  <si>
+    <t>SR-IMC-001</t>
+  </si>
+  <si>
+    <t>DM-IMC-001</t>
+  </si>
+  <si>
+    <t>ARM-IMC-001</t>
+  </si>
+  <si>
+    <t>TV-IMC-001</t>
+  </si>
+  <si>
+    <t>HA-IMC-001</t>
+  </si>
+  <si>
+    <t>CJ-IMC-001</t>
+  </si>
+  <si>
+    <t>PO-IMC-001</t>
+  </si>
+  <si>
+    <t>OF-IMC-001</t>
+  </si>
+  <si>
+    <t>SR-IMC-002</t>
+  </si>
+  <si>
+    <t>DM-IMC-002</t>
+  </si>
+  <si>
+    <t>ARM-IMC-002</t>
+  </si>
+  <si>
+    <t>ANM-IMC-001</t>
+  </si>
+  <si>
+    <t>HA-IMC-002</t>
+  </si>
+  <si>
+    <t>CJ-IMC-002</t>
+  </si>
+  <si>
+    <t>PO-IMC-002</t>
+  </si>
+  <si>
+    <t>OF-IMC-002</t>
+  </si>
+  <si>
+    <t>SR-IMC-003</t>
+  </si>
+  <si>
+    <t>DM-IMC-003</t>
+  </si>
+  <si>
+    <t>AR-IMC-003</t>
+  </si>
+  <si>
+    <t>ANM-IMC-002</t>
+  </si>
+  <si>
+    <t>HM-IMC-001</t>
+  </si>
+  <si>
+    <t>CJ-IMC-003</t>
+  </si>
+  <si>
+    <t>PO-IMC-003</t>
+  </si>
+  <si>
+    <t>OF-IMC-003</t>
+  </si>
+  <si>
+    <t>3°Int</t>
+  </si>
+  <si>
+    <t>2°Int</t>
+  </si>
+  <si>
+    <t>1°Int</t>
+  </si>
+  <si>
+    <t>3°Inv</t>
+  </si>
+  <si>
+    <t>2°Inv</t>
+  </si>
+  <si>
+    <t>1°Inv (B)</t>
+  </si>
+  <si>
+    <t>1°Inv (A)</t>
+  </si>
+  <si>
+    <t>3°Bas</t>
+  </si>
+  <si>
+    <t>2°Bas</t>
+  </si>
+  <si>
+    <t>1°Bas</t>
+  </si>
+  <si>
+    <t>3°Ini</t>
+  </si>
+  <si>
+    <t>2°Ini (B)</t>
+  </si>
+  <si>
+    <t>2°Ini (A)</t>
+  </si>
+  <si>
+    <t>1°Ini (B)</t>
+  </si>
+  <si>
+    <t>1°Ini (A)</t>
+  </si>
+  <si>
+    <t>3°Inf (B)</t>
+  </si>
+  <si>
+    <t>3°Inf (A)</t>
+  </si>
+  <si>
+    <t>2°Inf (B)</t>
+  </si>
+  <si>
+    <t>2°Inf (A)</t>
+  </si>
+  <si>
+    <t>1°Inf (B)</t>
+  </si>
+  <si>
+    <t>1°Inf (A)</t>
   </si>
 </sst>
 </file>
@@ -400,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448362D5-37D8-4059-AA07-93A9D8C72116}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,6 +819,2539 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>25003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>25004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>25008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>25011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>25012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>25014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>25015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>25016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>25018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>25019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>25020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>25021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>25022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>25031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>25032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>25033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>25034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>25035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>25036</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>25037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>25038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>25039</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>25040</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>25041</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>25042</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>25043</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>25044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>25045</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>25046</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>25047</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>25048</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>25049</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>25050</v>
+      </c>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>25051</v>
+      </c>
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>25052</v>
+      </c>
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>25053</v>
+      </c>
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>25054</v>
+      </c>
+      <c r="B55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>25055</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>25056</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>25057</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>25058</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>25059</v>
+      </c>
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>25060</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>25061</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>25062</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>25063</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>25064</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>25065</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>25066</v>
+      </c>
+      <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>25067</v>
+      </c>
+      <c r="B68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>25068</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>25069</v>
+      </c>
+      <c r="B70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>25070</v>
+      </c>
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>25071</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>25072</v>
+      </c>
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>25073</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>25074</v>
+      </c>
+      <c r="B75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>25075</v>
+      </c>
+      <c r="B76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>25076</v>
+      </c>
+      <c r="B77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>25077</v>
+      </c>
+      <c r="B78" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>25078</v>
+      </c>
+      <c r="B79" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>25079</v>
+      </c>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>25080</v>
+      </c>
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>25081</v>
+      </c>
+      <c r="B82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>25082</v>
+      </c>
+      <c r="B83" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>25083</v>
+      </c>
+      <c r="B84" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>25084</v>
+      </c>
+      <c r="B85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>25085</v>
+      </c>
+      <c r="B86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>25086</v>
+      </c>
+      <c r="B87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>25087</v>
+      </c>
+      <c r="B88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>25088</v>
+      </c>
+      <c r="B89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>25089</v>
+      </c>
+      <c r="B90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>25090</v>
+      </c>
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>25091</v>
+      </c>
+      <c r="B92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>25092</v>
+      </c>
+      <c r="B93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>25093</v>
+      </c>
+      <c r="B94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>25094</v>
+      </c>
+      <c r="B95" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>25095</v>
+      </c>
+      <c r="B96" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>25096</v>
+      </c>
+      <c r="B97" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" t="s">
+        <v>69</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>25097</v>
+      </c>
+      <c r="B98" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>25098</v>
+      </c>
+      <c r="B99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" t="s">
+        <v>71</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>25099</v>
+      </c>
+      <c r="B100" t="s">
+        <v>120</v>
+      </c>
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>25100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" t="s">
+        <v>73</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>25101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" t="s">
+        <v>65</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>25102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>25103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>25104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>25105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>25106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>25107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" t="s">
+        <v>71</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>25108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" t="s">
+        <v>72</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>25109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>25110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" t="s">
+        <v>74</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>25111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" t="s">
+        <v>75</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>25112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" t="s">
+        <v>76</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>25113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>77</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>25114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" t="s">
+        <v>78</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>25115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" t="s">
+        <v>79</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>25116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" t="s">
+        <v>80</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>25117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="s">
+        <v>81</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>25118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" t="s">
+        <v>82</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>25119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" t="s">
+        <v>83</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>25120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>25121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" t="s">
+        <v>85</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>25122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>117</v>
+      </c>
+      <c r="C123" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>25123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>117</v>
+      </c>
+      <c r="C124" t="s">
+        <v>87</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>25124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>117</v>
+      </c>
+      <c r="C125" t="s">
+        <v>88</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>25125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>117</v>
+      </c>
+      <c r="C126" t="s">
+        <v>89</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>25126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>116</v>
+      </c>
+      <c r="C127" t="s">
+        <v>90</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>25127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128" t="s">
+        <v>91</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>25128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" t="s">
+        <v>92</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>25129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>116</v>
+      </c>
+      <c r="C130" t="s">
+        <v>93</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>25130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>116</v>
+      </c>
+      <c r="C131" t="s">
+        <v>94</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>25131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>116</v>
+      </c>
+      <c r="C132" t="s">
+        <v>95</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>25132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>116</v>
+      </c>
+      <c r="C133" t="s">
+        <v>96</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>25133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" t="s">
+        <v>97</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>25134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>115</v>
+      </c>
+      <c r="C135" t="s">
+        <v>98</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>25135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" t="s">
+        <v>99</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>25136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>115</v>
+      </c>
+      <c r="C137" t="s">
+        <v>100</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>25137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>115</v>
+      </c>
+      <c r="C138" t="s">
+        <v>101</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>25138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" t="s">
+        <v>102</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>25139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>115</v>
+      </c>
+      <c r="C140" t="s">
+        <v>103</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>25140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>115</v>
+      </c>
+      <c r="C141" t="s">
+        <v>104</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>25141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>115</v>
+      </c>
+      <c r="C142" t="s">
+        <v>105</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>25142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" t="s">
+        <v>106</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>25143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>114</v>
+      </c>
+      <c r="C144" t="s">
+        <v>107</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>25144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>114</v>
+      </c>
+      <c r="C145" t="s">
+        <v>108</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>25145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>114</v>
+      </c>
+      <c r="C146" t="s">
+        <v>109</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>25146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>114</v>
+      </c>
+      <c r="C147" t="s">
+        <v>110</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>25147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>114</v>
+      </c>
+      <c r="C148" t="s">
+        <v>111</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>25148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>114</v>
+      </c>
+      <c r="C149" t="s">
+        <v>112</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>25149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>114</v>
+      </c>
+      <c r="C150" t="s">
+        <v>113</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
